--- a/2022/Symphony/APRIL/20.04.2022/MC Bank Statement April-2022.xlsx
+++ b/2022/Symphony/APRIL/20.04.2022/MC Bank Statement April-2022.xlsx
@@ -3036,9 +3036,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3072,6 +3069,9 @@
     <xf numFmtId="1" fontId="33" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3083,6 +3083,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3111,22 +3123,10 @@
     <xf numFmtId="1" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6183,67 +6183,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="320" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
-      <c r="J1" s="316"/>
-      <c r="K1" s="316"/>
-      <c r="L1" s="316"/>
-      <c r="M1" s="316"/>
-      <c r="N1" s="316"/>
-      <c r="O1" s="316"/>
-      <c r="P1" s="316"/>
-      <c r="Q1" s="316"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
+      <c r="N1" s="320"/>
+      <c r="O1" s="320"/>
+      <c r="P1" s="320"/>
+      <c r="Q1" s="320"/>
     </row>
     <row r="2" spans="1:24" s="70" customFormat="1" ht="18">
-      <c r="A2" s="317" t="s">
+      <c r="A2" s="321" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="317"/>
-      <c r="C2" s="317"/>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-      <c r="K2" s="317"/>
-      <c r="L2" s="317"/>
-      <c r="M2" s="317"/>
-      <c r="N2" s="317"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="317"/>
-      <c r="Q2" s="317"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
+      <c r="O2" s="321"/>
+      <c r="P2" s="321"/>
+      <c r="Q2" s="321"/>
     </row>
     <row r="3" spans="1:24" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="318" t="s">
+      <c r="A3" s="322" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="319"/>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="319"/>
-      <c r="F3" s="319"/>
-      <c r="G3" s="319"/>
-      <c r="H3" s="319"/>
-      <c r="I3" s="319"/>
-      <c r="J3" s="319"/>
-      <c r="K3" s="319"/>
-      <c r="L3" s="319"/>
-      <c r="M3" s="319"/>
-      <c r="N3" s="319"/>
-      <c r="O3" s="319"/>
-      <c r="P3" s="319"/>
-      <c r="Q3" s="320"/>
+      <c r="B3" s="323"/>
+      <c r="C3" s="323"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
+      <c r="F3" s="323"/>
+      <c r="G3" s="323"/>
+      <c r="H3" s="323"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="323"/>
+      <c r="K3" s="323"/>
+      <c r="L3" s="323"/>
+      <c r="M3" s="323"/>
+      <c r="N3" s="323"/>
+      <c r="O3" s="323"/>
+      <c r="P3" s="323"/>
+      <c r="Q3" s="324"/>
       <c r="S3" s="54"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6252,52 +6252,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="72" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="321" t="s">
+      <c r="A4" s="325" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="323" t="s">
+      <c r="B4" s="327" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="325" t="s">
+      <c r="C4" s="316" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="325" t="s">
+      <c r="D4" s="316" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="325" t="s">
+      <c r="E4" s="316" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="325" t="s">
+      <c r="F4" s="316" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="325" t="s">
+      <c r="G4" s="316" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="325" t="s">
+      <c r="H4" s="316" t="s">
         <v>242</v>
       </c>
-      <c r="I4" s="325" t="s">
+      <c r="I4" s="316" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="325" t="s">
+      <c r="J4" s="316" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="325" t="s">
+      <c r="K4" s="316" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="325" t="s">
+      <c r="L4" s="316" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="325" t="s">
+      <c r="M4" s="316" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="325" t="s">
+      <c r="N4" s="316" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="329" t="s">
+      <c r="O4" s="318" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="327" t="s">
+      <c r="P4" s="329" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="132" t="s">
@@ -6310,22 +6310,22 @@
       <c r="W4" s="74"/>
     </row>
     <row r="5" spans="1:24" s="72" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="322"/>
-      <c r="B5" s="324"/>
-      <c r="C5" s="326"/>
-      <c r="D5" s="326"/>
-      <c r="E5" s="326"/>
-      <c r="F5" s="326"/>
-      <c r="G5" s="326"/>
-      <c r="H5" s="326"/>
-      <c r="I5" s="326"/>
-      <c r="J5" s="326"/>
-      <c r="K5" s="326"/>
-      <c r="L5" s="326"/>
-      <c r="M5" s="326"/>
-      <c r="N5" s="326"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="328"/>
+      <c r="A5" s="326"/>
+      <c r="B5" s="328"/>
+      <c r="C5" s="317"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="317"/>
+      <c r="J5" s="317"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="317"/>
+      <c r="M5" s="317"/>
+      <c r="N5" s="317"/>
+      <c r="O5" s="319"/>
+      <c r="P5" s="330"/>
       <c r="Q5" s="133" t="s">
         <v>45</v>
       </c>
@@ -9418,6 +9418,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -9434,9 +9437,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -22047,15 +22047,15 @@
       <c r="CS113" s="144"/>
     </row>
     <row r="114" spans="1:97">
-      <c r="A114" s="305"/>
-      <c r="B114" s="306" t="s">
+      <c r="A114" s="304"/>
+      <c r="B114" s="305" t="s">
         <v>230</v>
       </c>
-      <c r="C114" s="307"/>
-      <c r="D114" s="308">
+      <c r="C114" s="306"/>
+      <c r="D114" s="307">
         <v>47500</v>
       </c>
-      <c r="E114" s="309" t="s">
+      <c r="E114" s="308" t="s">
         <v>225</v>
       </c>
       <c r="F114" s="144"/>
@@ -34051,8 +34051,8 @@
   </sheetPr>
   <dimension ref="A1:Y220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34288,8 +34288,12 @@
         <v>33429</v>
       </c>
       <c r="C9" s="40"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="256"/>
+      <c r="D9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="254">
+        <v>3167255</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="116"/>
       <c r="H9" s="7"/>
@@ -34320,10 +34324,10 @@
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="254">
-        <v>3167255</v>
+        <v>232</v>
+      </c>
+      <c r="E10" s="256">
+        <v>365352</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="246"/>
@@ -34347,16 +34351,16 @@
       <c r="Y10" s="7"/>
     </row>
     <row r="11" spans="1:25" ht="21.75">
-      <c r="A11" s="301" t="s">
+      <c r="A11" s="300" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="302">
+      <c r="B11" s="301">
         <f>B6-B9-B10</f>
         <v>160194.86460000009</v>
       </c>
       <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="254"/>
+      <c r="D11" s="311"/>
+      <c r="E11" s="256"/>
       <c r="F11" s="7"/>
       <c r="G11" s="246"/>
       <c r="H11" s="7"/>
@@ -34381,12 +34385,8 @@
       <c r="A12" s="291"/>
       <c r="B12" s="258"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="E12" s="256">
-        <v>365352</v>
-      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="254"/>
       <c r="F12" s="7" t="s">
         <v>50</v>
       </c>
@@ -35094,17 +35094,17 @@
       <c r="Y33" s="7"/>
     </row>
     <row r="34" spans="1:25" ht="22.5" thickBot="1">
-      <c r="A34" s="310" t="s">
+      <c r="A34" s="309" t="s">
         <v>245</v>
       </c>
-      <c r="B34" s="311">
+      <c r="B34" s="310">
         <v>50000</v>
       </c>
       <c r="C34" s="294"/>
-      <c r="D34" s="303" t="s">
+      <c r="D34" s="302" t="s">
         <v>230</v>
       </c>
-      <c r="E34" s="304">
+      <c r="E34" s="303">
         <v>47500</v>
       </c>
       <c r="G34" s="16"/>
@@ -38850,8 +38850,8 @@
       <c r="Y220" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A21:B33">
-    <sortCondition ref="A20"/>
+  <sortState ref="D9:E12">
+    <sortCondition ref="D9"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="A19:E19"/>
